--- a/data/respirometry/shallow/final_rates/500_rates.xlsx
+++ b/data/respirometry/shallow/final_rates/500_rates.xlsx
@@ -529,43 +529,43 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>191.5137261752041</v>
+        <v>218.1463131112375</v>
       </c>
       <c r="E2">
-        <v>-0.7348214755102037</v>
+        <v>-1.735163104968382</v>
       </c>
       <c r="F2">
-        <v>0.442</v>
+        <v>0.991</v>
       </c>
       <c r="H2">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I2">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="J2">
-        <v>17.95</v>
+        <v>24.95</v>
       </c>
       <c r="K2">
-        <v>29.95</v>
+        <v>44.95</v>
       </c>
       <c r="L2">
-        <v>171.128837</v>
+        <v>174.878177</v>
       </c>
       <c r="M2">
-        <v>165.765278</v>
+        <v>138.524164</v>
       </c>
       <c r="N2">
-        <v>-0.7348214755102037</v>
+        <v>-1.735163104968382</v>
       </c>
       <c r="O2">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P2">
-        <v>-0.6619623120262726</v>
+        <v>-1.656987882846046</v>
       </c>
       <c r="Q2">
-        <v>-0.6619623120262726</v>
+        <v>-1.656987882846046</v>
       </c>
       <c r="R2" t="inlineStr">
         <is>
@@ -578,24 +578,24 @@
         </is>
       </c>
       <c r="T2">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V2">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z2">
-        <v>-0.1022334594693376</v>
+        <v>-0.2402713258803979</v>
       </c>
       <c r="AB2">
-        <v>-0.004089338378773503</v>
+        <v>-981.2587840583742</v>
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD2">
-        <v>-0.004089338378773503</v>
+        <v>-981.2587840583742</v>
       </c>
       <c r="AE2" t="inlineStr">
         <is>
@@ -616,43 +616,43 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>222.5768167923059</v>
+        <v>237.7066000306082</v>
       </c>
       <c r="E3">
-        <v>-1.147851743265301</v>
+        <v>-1.741050521228543</v>
       </c>
       <c r="F3">
-        <v>0.66</v>
+        <v>0.99</v>
       </c>
       <c r="H3">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I3">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="J3">
-        <v>17.98333333333333</v>
+        <v>24.98333333333333</v>
       </c>
       <c r="K3">
-        <v>29.98333333333333</v>
+        <v>44.98333333333333</v>
       </c>
       <c r="L3">
-        <v>196.366227</v>
+        <v>193.530558</v>
       </c>
       <c r="M3">
-        <v>184.969943</v>
+        <v>160.456873</v>
       </c>
       <c r="N3">
-        <v>-1.147851743265301</v>
+        <v>-1.741050521228543</v>
       </c>
       <c r="O3">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P3">
-        <v>-1.07499257978137</v>
+        <v>-1.662875299106208</v>
       </c>
       <c r="Q3">
-        <v>-1.07499257978137</v>
+        <v>-1.662875299106208</v>
       </c>
       <c r="R3" t="inlineStr">
         <is>
@@ -665,24 +665,24 @@
         </is>
       </c>
       <c r="T3">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V3">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z3">
-        <v>-0.1660218540214348</v>
+        <v>-0.2481821104948953</v>
       </c>
       <c r="AB3">
-        <v>-0.006640874160857391</v>
+        <v>-1666.799694145389</v>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD3">
-        <v>-0.006640874160857391</v>
+        <v>-1666.799694145389</v>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
@@ -703,43 +703,43 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>167.8073242967754</v>
+        <v>206.8458919471439</v>
       </c>
       <c r="E4">
-        <v>-0.6583029314285676</v>
+        <v>-2.150765142818427</v>
       </c>
       <c r="F4">
-        <v>0.245</v>
+        <v>0.931</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="I4">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="J4">
-        <v>18.05</v>
+        <v>25.05</v>
       </c>
       <c r="K4">
-        <v>30.05</v>
+        <v>45.05</v>
       </c>
       <c r="L4">
-        <v>149.212783</v>
+        <v>152.385555</v>
       </c>
       <c r="M4">
-        <v>145.985985</v>
+        <v>113.876846</v>
       </c>
       <c r="N4">
-        <v>-0.6583029314285676</v>
+        <v>-2.150765142818427</v>
       </c>
       <c r="O4">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P4">
-        <v>-0.5854437679446365</v>
+        <v>-2.072589920696091</v>
       </c>
       <c r="Q4">
-        <v>-0.5854437679446365</v>
+        <v>-2.072589920696091</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
@@ -752,24 +752,24 @@
         </is>
       </c>
       <c r="T4">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V4">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z4">
-        <v>-0.09041593552136967</v>
+        <v>-0.3045190654212989</v>
       </c>
       <c r="AB4">
-        <v>-0.003616637420854787</v>
+        <v>-1369.97470459495</v>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD4">
-        <v>-0.003616637420854787</v>
+        <v>-1369.97470459495</v>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
@@ -790,43 +790,43 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>230.306096582163</v>
+        <v>259.642197738347</v>
       </c>
       <c r="E5">
-        <v>-0.8228389563265253</v>
+        <v>-1.921949808943092</v>
       </c>
       <c r="F5">
-        <v>0.421</v>
+        <v>0.987</v>
       </c>
       <c r="H5">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="I5">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="J5">
-        <v>18.1</v>
+        <v>25.1</v>
       </c>
       <c r="K5">
-        <v>30.1</v>
+        <v>45.1</v>
       </c>
       <c r="L5">
-        <v>209.893796</v>
+        <v>211.770852</v>
       </c>
       <c r="M5">
-        <v>200.033084</v>
+        <v>173.890425</v>
       </c>
       <c r="N5">
-        <v>-0.8228389563265253</v>
+        <v>-1.921949808943092</v>
       </c>
       <c r="O5">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P5">
-        <v>-0.7499797928425942</v>
+        <v>-1.843774586820756</v>
       </c>
       <c r="Q5">
-        <v>-0.7499797928425942</v>
+        <v>-1.843774586820756</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
@@ -839,24 +839,24 @@
         </is>
       </c>
       <c r="T5">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V5">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z5">
-        <v>-0.1158268792066103</v>
+        <v>-0.2616181228363033</v>
       </c>
       <c r="AB5">
-        <v>-0.004633075168264411</v>
+        <v>-1034.295753429247</v>
       </c>
       <c r="AC5" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD5">
-        <v>-0.004633075168264411</v>
+        <v>-1034.295753429247</v>
       </c>
       <c r="AE5" t="inlineStr">
         <is>
@@ -877,43 +877,43 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>259.3149301612923</v>
+        <v>293.5853077219285</v>
       </c>
       <c r="E6">
-        <v>-0.7035364351020351</v>
+        <v>-1.967722579855463</v>
       </c>
       <c r="F6">
-        <v>0.415</v>
+        <v>0.98</v>
       </c>
       <c r="H6">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I6">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="J6">
-        <v>17.91666666666667</v>
+        <v>24.91666666666667</v>
       </c>
       <c r="K6">
-        <v>29.91666666666667</v>
+        <v>44.91666666666666</v>
       </c>
       <c r="L6">
-        <v>241.653732</v>
+        <v>243.146471</v>
       </c>
       <c r="M6">
-        <v>237.486943</v>
+        <v>202.78998</v>
       </c>
       <c r="N6">
-        <v>-0.7035364351020351</v>
+        <v>-1.967722579855463</v>
       </c>
       <c r="O6">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P6">
-        <v>-0.6306772716181041</v>
+        <v>-1.889547357733127</v>
       </c>
       <c r="Q6">
-        <v>-0.6306772716181041</v>
+        <v>-1.889547357733127</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
@@ -926,24 +926,24 @@
         </is>
       </c>
       <c r="T6">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V6">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z6">
-        <v>-0.09740179782870001</v>
+        <v>-0.2733115036658668</v>
       </c>
       <c r="AB6">
-        <v>-0.003896071913148</v>
+        <v>-1476.076647556297</v>
       </c>
       <c r="AC6" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD6">
-        <v>-0.003896071913148</v>
+        <v>-1476.076647556297</v>
       </c>
       <c r="AE6" t="inlineStr">
         <is>
@@ -964,43 +964,43 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>196.1685564818502</v>
+        <v>233.7285225591691</v>
       </c>
       <c r="E7">
-        <v>-0.4127816995918342</v>
+        <v>-1.807070560072269</v>
       </c>
       <c r="F7">
-        <v>0.143</v>
+        <v>0.967</v>
       </c>
       <c r="H7">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="I7">
-        <v>121</v>
+        <v>181</v>
       </c>
       <c r="J7">
-        <v>17.96666666666667</v>
+        <v>24.96666666666667</v>
       </c>
       <c r="K7">
-        <v>29.96666666666667</v>
+        <v>44.96666666666667</v>
       </c>
       <c r="L7">
-        <v>181.816424</v>
+        <v>183.911286</v>
       </c>
       <c r="M7">
-        <v>178.390236</v>
+        <v>154.640582</v>
       </c>
       <c r="N7">
-        <v>-0.4127816995918342</v>
+        <v>-1.807070560072269</v>
       </c>
       <c r="O7">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P7">
-        <v>-0.3399225361079031</v>
+        <v>-1.728895337949933</v>
       </c>
       <c r="Q7">
-        <v>-0.3399225361079031</v>
+        <v>-1.728895337949933</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
@@ -1013,24 +1013,24 @@
         </is>
       </c>
       <c r="T7">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V7">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z7">
-        <v>-0.05249763647650457</v>
+        <v>-0.2471055287899174</v>
       </c>
       <c r="AB7">
-        <v>-0.002099905459060183</v>
+        <v>-764.489026552552</v>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD7">
-        <v>-0.002099905459060183</v>
+        <v>-764.489026552552</v>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
@@ -1051,43 +1051,43 @@
         <v>1</v>
       </c>
       <c r="D8">
-        <v>184.1905050811158</v>
+        <v>185.4053589165027</v>
       </c>
       <c r="E8">
-        <v>-0.01784725061224792</v>
+        <v>-0.07113783568202547</v>
       </c>
       <c r="F8">
-        <v>0.00281</v>
+        <v>0.126</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="I8">
-        <v>122</v>
+        <v>182</v>
       </c>
       <c r="J8">
-        <v>18.01666666666667</v>
+        <v>25.01666666666667</v>
       </c>
       <c r="K8">
-        <v>30.01666666666667</v>
+        <v>45.01666666666667</v>
       </c>
       <c r="L8">
-        <v>185.147121</v>
+        <v>183.560071</v>
       </c>
       <c r="M8">
-        <v>183.034809</v>
+        <v>182.511408</v>
       </c>
       <c r="N8">
-        <v>-0.01784725061224792</v>
+        <v>-0.07113783568202547</v>
       </c>
       <c r="O8">
-        <v>-0.07285916348393108</v>
+        <v>-0.07817522212233576</v>
       </c>
       <c r="P8">
-        <v>0.05501191287168316</v>
+        <v>0.007037386440310281</v>
       </c>
       <c r="Q8">
-        <v>0.05501191287168316</v>
+        <v>0.007037386440310281</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
@@ -1100,24 +1100,28 @@
         </is>
       </c>
       <c r="T8">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V8">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>0.008496039823902748</v>
-      </c>
-      <c r="AB8">
-        <v>0.00033984159295611</v>
+        <v>0.001086572466383907</v>
+      </c>
+      <c r="AB8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD8">
-        <v>0.00033984159295611</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD8" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE8" t="inlineStr">
         <is>
@@ -1138,43 +1142,43 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>141.1026004287243</v>
+        <v>141.1527022944132</v>
       </c>
       <c r="E9">
-        <v>1.778191046377605</v>
+        <v>1.769327331454749</v>
       </c>
       <c r="F9">
-        <v>0.961</v>
+        <v>0.967</v>
       </c>
       <c r="H9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>17.95</v>
+        <v>19.95</v>
       </c>
       <c r="L9">
         <v>142.068575</v>
       </c>
       <c r="M9">
-        <v>171.128837</v>
+        <v>178.729241</v>
       </c>
       <c r="N9">
-        <v>1.778191046377605</v>
+        <v>1.769327331454749</v>
       </c>
       <c r="O9">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P9">
-        <v>1.74006724086291</v>
+        <v>1.74400467806331</v>
       </c>
       <c r="Q9">
-        <v>1.74006724086291</v>
+        <v>1.74400467806331</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
@@ -1187,24 +1191,24 @@
         </is>
       </c>
       <c r="T9">
-        <v>0.15444</v>
+        <v>0.1450048780487805</v>
       </c>
       <c r="V9">
-        <v>0.0025</v>
+        <v>0.0002448603057459146</v>
       </c>
       <c r="Z9">
-        <v>0.2687359846788678</v>
+        <v>0.252889185659073</v>
       </c>
       <c r="AB9">
-        <v>0.01074943938715471</v>
+        <v>1032.789634435439</v>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD9">
-        <v>0.01074943938715471</v>
+        <v>1032.789634435439</v>
       </c>
       <c r="AE9" t="inlineStr">
         <is>
@@ -1225,43 +1229,43 @@
         <v>1</v>
       </c>
       <c r="D10">
-        <v>156.9986056909693</v>
+        <v>157.1015984756967</v>
       </c>
       <c r="E10">
-        <v>2.15152190539683</v>
+        <v>2.134348235946302</v>
       </c>
       <c r="F10">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.98333333333333</v>
+        <v>19.98333333333333</v>
       </c>
       <c r="L10">
         <v>156.07041</v>
       </c>
       <c r="M10">
-        <v>196.366227</v>
+        <v>204.186297</v>
       </c>
       <c r="N10">
-        <v>2.15152190539683</v>
+        <v>2.134348235946302</v>
       </c>
       <c r="O10">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P10">
-        <v>2.113398099882134</v>
+        <v>2.109025582554863</v>
       </c>
       <c r="Q10">
-        <v>2.113398099882134</v>
+        <v>2.109025582554863</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
@@ -1274,24 +1278,24 @@
         </is>
       </c>
       <c r="T10">
-        <v>0.15444</v>
+        <v>0.1492487804878049</v>
       </c>
       <c r="V10">
-        <v>0.0025</v>
+        <v>0.0001488973818309612</v>
       </c>
       <c r="Z10">
-        <v>0.3263932025457968</v>
+        <v>0.3147694962138956</v>
       </c>
       <c r="AB10">
-        <v>0.01305572810183187</v>
+        <v>2114.00289476711</v>
       </c>
       <c r="AC10" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD10">
-        <v>0.01305572810183187</v>
+        <v>2114.00289476711</v>
       </c>
       <c r="AE10" t="inlineStr">
         <is>
@@ -1312,43 +1316,43 @@
         <v>1</v>
       </c>
       <c r="D11">
-        <v>130.0805915424878</v>
+        <v>129.9671140085762</v>
       </c>
       <c r="E11">
-        <v>1.111462222228354</v>
+        <v>1.129912095768344</v>
       </c>
       <c r="F11">
-        <v>0.577</v>
+        <v>0.629</v>
       </c>
       <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J11">
         <v>0.01666666666666667</v>
       </c>
       <c r="K11">
-        <v>18.05</v>
+        <v>20.05</v>
       </c>
       <c r="L11">
         <v>125.899261</v>
       </c>
       <c r="M11">
-        <v>149.212783</v>
+        <v>151.134486</v>
       </c>
       <c r="N11">
-        <v>1.111462222228354</v>
+        <v>1.129912095768344</v>
       </c>
       <c r="O11">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P11">
-        <v>1.073338416713658</v>
+        <v>1.104589442376905</v>
       </c>
       <c r="Q11">
-        <v>1.073338416713658</v>
+        <v>1.104589442376905</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
@@ -1361,24 +1365,24 @@
         </is>
       </c>
       <c r="T11">
-        <v>0.15444</v>
+        <v>0.1469268292682927</v>
       </c>
       <c r="V11">
-        <v>0.0025</v>
+        <v>0.0002222807942365138</v>
       </c>
       <c r="Z11">
-        <v>0.1657663850772574</v>
+        <v>0.1622938244116702</v>
       </c>
       <c r="AB11">
-        <v>0.006630655403090297</v>
+        <v>730.1297665824625</v>
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD11">
-        <v>0.006630655403090297</v>
+        <v>730.1297665824625</v>
       </c>
       <c r="AE11" t="inlineStr">
         <is>
@@ -1399,43 +1403,43 @@
         <v>1</v>
       </c>
       <c r="D12">
-        <v>170.3513178374725</v>
+        <v>170.6055724988584</v>
       </c>
       <c r="E12">
-        <v>2.175500642304686</v>
+        <v>2.133712008589159</v>
       </c>
       <c r="F12">
-        <v>0.98</v>
+        <v>0.982</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>0.01666666666666667</v>
       </c>
       <c r="K12">
-        <v>18.1</v>
+        <v>20.1</v>
       </c>
       <c r="L12">
         <v>171.128837</v>
       </c>
       <c r="M12">
-        <v>209.893796</v>
+        <v>215.160337</v>
       </c>
       <c r="N12">
-        <v>2.175500642304686</v>
+        <v>2.133712008589159</v>
       </c>
       <c r="O12">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P12">
-        <v>2.137376836789991</v>
+        <v>2.108389355197721</v>
       </c>
       <c r="Q12">
-        <v>2.137376836789991</v>
+        <v>2.108389355197721</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
@@ -1448,24 +1452,24 @@
         </is>
       </c>
       <c r="T12">
-        <v>0.15444</v>
+        <v>0.1418926829268293</v>
       </c>
       <c r="V12">
-        <v>0.0025</v>
+        <v>0.0002529432437181515</v>
       </c>
       <c r="Z12">
-        <v>0.3300964786738462</v>
+        <v>0.2991650222633723</v>
       </c>
       <c r="AB12">
-        <v>0.01320385914695385</v>
+        <v>1182.73577054592</v>
       </c>
       <c r="AC12" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD12">
-        <v>0.01320385914695385</v>
+        <v>1182.73577054592</v>
       </c>
       <c r="AE12" t="inlineStr">
         <is>
@@ -1486,43 +1490,43 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>193.8048205391526</v>
+        <v>193.543223554161</v>
       </c>
       <c r="E13">
-        <v>2.514029566292347</v>
+        <v>2.557141320832704</v>
       </c>
       <c r="F13">
-        <v>0.957</v>
+        <v>0.965</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J13">
         <v>0.03333333333333333</v>
       </c>
       <c r="K13">
-        <v>17.91666666666667</v>
+        <v>19.91666666666667</v>
       </c>
       <c r="L13">
         <v>196.175574</v>
       </c>
       <c r="M13">
-        <v>241.653732</v>
+        <v>247.69543</v>
       </c>
       <c r="N13">
-        <v>2.514029566292347</v>
+        <v>2.557141320832704</v>
       </c>
       <c r="O13">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P13">
-        <v>2.475905760777652</v>
+        <v>2.531818667441266</v>
       </c>
       <c r="Q13">
-        <v>2.475905760777652</v>
+        <v>2.531818667441266</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
@@ -1535,24 +1539,24 @@
         </is>
       </c>
       <c r="T13">
-        <v>0.15444</v>
+        <v>0.1446439024390244</v>
       </c>
       <c r="V13">
-        <v>0.0025</v>
+        <v>0.0001851607801792304</v>
       </c>
       <c r="Z13">
-        <v>0.3823788856945006</v>
+        <v>0.3662121323266753</v>
       </c>
       <c r="AB13">
-        <v>0.01529515542778002</v>
+        <v>1977.806163768549</v>
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD13">
-        <v>0.01529515542778002</v>
+        <v>1977.806163768549</v>
       </c>
       <c r="AE13" t="inlineStr">
         <is>
@@ -1573,43 +1577,43 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>149.2235212018686</v>
+        <v>149.1277181191609</v>
       </c>
       <c r="E14">
-        <v>1.837424205703199</v>
+        <v>1.852900444664414</v>
       </c>
       <c r="F14">
-        <v>0.961</v>
+        <v>0.969</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J14">
         <v>0.05</v>
       </c>
       <c r="K14">
-        <v>17.96666666666667</v>
+        <v>19.96666666666667</v>
       </c>
       <c r="L14">
         <v>151.688987</v>
       </c>
       <c r="M14">
-        <v>181.816424</v>
+        <v>185.147121</v>
       </c>
       <c r="N14">
-        <v>1.837424205703199</v>
+        <v>1.852900444664414</v>
       </c>
       <c r="O14">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P14">
-        <v>1.799300400188504</v>
+        <v>1.827577791272976</v>
       </c>
       <c r="Q14">
-        <v>1.799300400188504</v>
+        <v>1.827577791272976</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
@@ -1622,24 +1626,24 @@
         </is>
       </c>
       <c r="T14">
-        <v>0.15444</v>
+        <v>0.1429268292682927</v>
       </c>
       <c r="V14">
-        <v>0.0025</v>
+        <v>0.0003232296608680373</v>
       </c>
       <c r="Z14">
-        <v>0.2778839538051125</v>
+        <v>0.2612098989477961</v>
       </c>
       <c r="AB14">
-        <v>0.0111153581522045</v>
+        <v>808.1247811426513</v>
       </c>
       <c r="AC14" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
+          <t>umolO2/min/m2</t>
         </is>
       </c>
       <c r="AD14">
-        <v>0.0111153581522045</v>
+        <v>808.1247811426513</v>
       </c>
       <c r="AE14" t="inlineStr">
         <is>
@@ -1660,43 +1664,43 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>183.2603630461</v>
+        <v>183.3523673100485</v>
       </c>
       <c r="E15">
-        <v>0.04319874016648108</v>
+        <v>0.02854873738546629</v>
       </c>
       <c r="F15">
-        <v>0.0205</v>
+        <v>0.0113</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J15">
         <v>0.06666666666666667</v>
       </c>
       <c r="K15">
-        <v>18.01666666666667</v>
+        <v>20.01666666666667</v>
       </c>
       <c r="L15">
         <v>183.735574</v>
       </c>
       <c r="M15">
-        <v>185.147121</v>
+        <v>184.792976</v>
       </c>
       <c r="N15">
-        <v>0.04319874016648108</v>
+        <v>0.02854873738546629</v>
       </c>
       <c r="O15">
-        <v>0.03812380551469532</v>
+        <v>0.02532265339143825</v>
       </c>
       <c r="P15">
-        <v>0.00507493465178576</v>
+        <v>0.003226083994028035</v>
       </c>
       <c r="Q15">
-        <v>0.00507493465178576</v>
+        <v>0.003226083994028035</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
@@ -1709,24 +1713,28 @@
         </is>
       </c>
       <c r="T15">
-        <v>0.15444</v>
+        <v>0.1544</v>
       </c>
       <c r="V15">
-        <v>0.0025</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>0.0007837729076217928</v>
-      </c>
-      <c r="AB15">
-        <v>3.135091630487171e-05</v>
+        <v>0.0004981073686779286</v>
+      </c>
+      <c r="AB15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AC15" t="inlineStr">
         <is>
-          <t>umolO2/min/cm2</t>
-        </is>
-      </c>
-      <c r="AD15">
-        <v>3.135091630487171e-05</v>
+          <t>umolO2/min/m2</t>
+        </is>
+      </c>
+      <c r="AD15" t="inlineStr">
+        <is>
+          <t>Inf</t>
+        </is>
       </c>
       <c r="AE15" t="inlineStr">
         <is>
